--- a/Toolsets/Calculators/Boundary_Momentum/Interest Rates/BOE/XLS Files/Lambda/2nd Render/3 Log to Linear.xlsx
+++ b/Toolsets/Calculators/Boundary_Momentum/Interest Rates/BOE/XLS Files/Lambda/2nd Render/3 Log to Linear.xlsx
@@ -514,14 +514,14 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4">
-        <v>3.8297216374269</v>
+        <v>5.3560560013</v>
       </c>
       <c r="C2" s="4">
-        <v>0.320668260438821</v>
+        <v>0.23</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>3.509053377</v>
+        <v>5.126056001</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -617,7 +617,7 @@
       </c>
       <c r="C5" s="7">
         <f>D2</f>
-        <v>3.509053377</v>
+        <v>5.126056001</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="C10" s="9">
         <f>(D2/1.4)/(2000/200000)</f>
-        <v>250.6466698</v>
+        <v>366.1468572</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="C12" s="2">
         <f>(D2/1.4)/(2000/200000)</f>
-        <v>250.6466698</v>
+        <v>366.1468572</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -936,19 +936,19 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <f>C12</f>
-        <v>250.6466698</v>
+        <v>366.1468572</v>
       </c>
       <c r="C15" s="2">
         <f>(((5/1.14)/B15))</f>
-        <v>0.01749859639</v>
+        <v>0.01197870424</v>
       </c>
       <c r="D15" s="1">
         <f>(((5/1.4)/C15))</f>
-        <v>204.0980025</v>
+        <v>298.1481552</v>
       </c>
       <c r="E15" s="1">
         <f>(((5/4.1)/D15))</f>
-        <v>0.005975130476</v>
+        <v>0.004090289254</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -976,19 +976,19 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <f>E16+E15</f>
-        <v>205.5362444</v>
+        <v>300.2445132</v>
       </c>
       <c r="C16" s="2">
         <f>((B15/(5/1.14)))</f>
-        <v>57.14744071</v>
+        <v>83.48148345</v>
       </c>
       <c r="D16" s="1">
         <f>((B15/(5/1.4)))</f>
-        <v>70.18106754</v>
+        <v>102.52112</v>
       </c>
       <c r="E16" s="1">
         <f>((B15/(5/4.1)))</f>
-        <v>205.5302692</v>
+        <v>300.2404229</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -28620,16 +28620,16 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
-        <f>'Calculating Variables'!B15</f>
-        <v>250.6466698</v>
+        <f>'Calculating Variables'!E16</f>
+        <v>300.2404229</v>
       </c>
       <c r="C2" s="2">
-        <f>'Calculating Variables'!B16</f>
-        <v>205.5362444</v>
+        <f>'Calculating Variables'!E15</f>
+        <v>0.004090289254</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>45.11042543</v>
+        <v>300.2363326</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -28725,7 +28725,7 @@
       </c>
       <c r="C5" s="7">
         <f>D2</f>
-        <v>45.11042543</v>
+        <v>300.2363326</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="1"/>
@@ -28890,7 +28890,7 @@
       </c>
       <c r="C10" s="9">
         <f>(D2/1.4)/(2000/200000)</f>
-        <v>3222.173245</v>
+        <v>21445.45233</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="1"/>
@@ -28956,7 +28956,7 @@
       </c>
       <c r="C12" s="16">
         <f>(D2/1.4)/(2000/200000)</f>
-        <v>3222.173245</v>
+        <v>21445.45233</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -29044,19 +29044,19 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <f>C12</f>
-        <v>3222.173245</v>
+        <v>21445.45233</v>
       </c>
       <c r="C15" s="2">
         <f>(((5/1.14)/B15))</f>
-        <v>0.001361182214</v>
+        <v>0.0002045172489</v>
       </c>
       <c r="D15" s="1">
         <f>(((5/1.4)/C15))</f>
-        <v>2623.769642</v>
+        <v>17462.72547</v>
       </c>
       <c r="E15" s="1">
         <f>(((5/4.1)/D15))</f>
-        <v>0.0004647939268</v>
+        <v>0.00006983515816</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -29084,19 +29084,19 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <f>E16+E15</f>
-        <v>2642.182526</v>
+        <v>17585.27098</v>
       </c>
       <c r="C16" s="2">
         <f>((B15/(5/1.14)))</f>
-        <v>734.6554999</v>
+        <v>4889.563132</v>
       </c>
       <c r="D16" s="1">
         <f>((B15/(5/1.4)))</f>
-        <v>902.2085086</v>
+        <v>6004.726653</v>
       </c>
       <c r="E16" s="1">
         <f>((B15/(5/4.1)))</f>
-        <v>2642.182061</v>
+        <v>17585.27091</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -29124,11 +29124,17 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <f>C16^-C15</f>
-        <v>0.9910572383</v>
+        <f t="shared" ref="C17:E17" si="1">C16^-C15</f>
+        <v>0.9982641633</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.999317607</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -29155,11 +29161,17 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <f>C16^C15</f>
-        <v>1.009023456</v>
+        <f t="shared" ref="C18:E18" si="2">C16^C15</f>
+        <v>1.001738855</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>1.000682859</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
